--- a/burndown-verkiezingen-d-m-b.xlsx
+++ b/burndown-verkiezingen-d-m-b.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Ballestero\Documents\School\SOD3\proefexamen-diego-misha-berkay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217AB530-EB17-483D-A9F9-6FFD4212ACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2740CE-4C65-4565-91BC-3E70C3E881B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Taak</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Nog doen</t>
   </si>
   <si>
-    <t>DoD</t>
-  </si>
-  <si>
     <t>Burndown</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Usecase diagram</t>
-  </si>
-  <si>
     <t>Sprint 1</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 0</t>
-  </si>
-  <si>
     <t>US 15</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>wireframe insert klant</t>
   </si>
   <si>
-    <t>US 0</t>
-  </si>
-  <si>
     <t>wk1</t>
   </si>
   <si>
@@ -153,6 +141,12 @@
   </si>
   <si>
     <t>wk4</t>
+  </si>
+  <si>
+    <t>Pre-req</t>
+  </si>
+  <si>
+    <t>Database aanmaken</t>
   </si>
 </sst>
 </file>
@@ -221,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -229,10 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,17 +235,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -373,7 +359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$56</c:f>
+              <c:f>BurndownChart!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,7 +407,7 @@
                     <c:v>Punten</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Sprint 0</c:v>
+                    <c:v>Pre-req</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Sprint 1</c:v>
@@ -438,24 +424,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$56:$F$56</c:f>
+              <c:f>BurndownChart!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,7 +458,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$57</c:f>
+              <c:f>BurndownChart!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,7 +506,7 @@
                     <c:v>Punten</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Sprint 0</c:v>
+                    <c:v>Pre-req</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Sprint 1</c:v>
@@ -537,21 +523,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$57:$F$57</c:f>
+              <c:f>BurndownChart!$B$55:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1360,7 +1346,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1706,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,22 +1712,22 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1751,35 +1737,39 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1788,238 +1778,234 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
+      <c r="C4" s="2">
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
+      <c r="A9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
+      <c r="A11" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>32</v>
+      <c r="A18" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2028,48 +2014,47 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>32</v>
+      <c r="A21" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2078,48 +2063,48 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>32</v>
+      <c r="A24" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2128,48 +2113,47 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
+      <c r="A27" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -2178,30 +2162,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>14</v>
+      <c r="A28" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>22</v>
+      <c r="A29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2210,32 +2195,28 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>32</v>
+      <c r="A30" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>32</v>
+      <c r="A31" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -2244,30 +2225,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>15</v>
+      <c r="A32" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="12"/>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>22</v>
+      <c r="A33" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -2275,33 +2257,30 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>32</v>
+      <c r="A34" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>16</v>
+      <c r="A35" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2309,31 +2288,31 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>22</v>
+      <c r="A36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>32</v>
+      <c r="A37" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2342,300 +2321,268 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>17</v>
+      <c r="A38" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="F38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
+      <c r="A39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="A40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="1"/>
+      <c r="A43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>19</v>
+      <c r="A44" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2</v>
-      </c>
+      <c r="A45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="1"/>
+      <c r="A46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>20</v>
+      <c r="A47" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="1"/>
+      <c r="A49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>21</v>
+      <c r="A50" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
+      <c r="A51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="1"/>
+      <c r="A52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>31</v>
+      <c r="A53" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>22</v>
+      <c r="A54" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B54" s="1">
+        <f>SUM(B3:B53)</f>
+        <v>54</v>
+      </c>
+      <c r="C54" s="2">
+        <f>B$54-SUM(C3:C53)</f>
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <f>C$54-SUM(D3:D53)</f>
+        <v>50</v>
+      </c>
+      <c r="E54" s="2">
+        <f>D$54-SUM(E3:E53)</f>
+        <v>50</v>
+      </c>
+      <c r="F54" s="2">
+        <f>E$54-SUM(F3:F53)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1">
-        <f>SUM(B4:B55)</f>
-        <v>56</v>
-      </c>
-      <c r="C56" s="2">
-        <f>B$56-SUM(C4:C55)</f>
-        <v>56</v>
-      </c>
-      <c r="D56" s="2">
-        <f>C$56-SUM(D4:D55)</f>
-        <v>56</v>
-      </c>
-      <c r="E56" s="2">
-        <f>D$56-SUM(E4:E55)</f>
-        <v>56</v>
-      </c>
-      <c r="F56" s="2">
-        <f>E$56-SUM(F4:F55)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1">
-        <f>B56</f>
-        <v>56</v>
-      </c>
-      <c r="C57" s="10">
-        <f>B$57-$B$57/COUNTA($C$1:$J$1)</f>
-        <v>42</v>
-      </c>
-      <c r="D57" s="10">
-        <f>C$57-$B$57/COUNTA($C$1:$J$1)</f>
-        <v>28</v>
-      </c>
-      <c r="E57" s="10">
-        <f>D$57-$B$57/COUNTA($C$1:$J$1)</f>
-        <v>14</v>
-      </c>
-      <c r="F57" s="10">
-        <f>E$57-$B$57/COUNTA($C$1:$J$1)</f>
+      <c r="B55" s="1">
+        <f>B54</f>
+        <v>54</v>
+      </c>
+      <c r="C55" s="8">
+        <f>B$55-$B$55/COUNTA($C$1:$J$1)</f>
+        <v>40.5</v>
+      </c>
+      <c r="D55" s="8">
+        <f>C$55-$B$55/COUNTA($C$1:$J$1)</f>
+        <v>27</v>
+      </c>
+      <c r="E55" s="8">
+        <f>D$55-$B$55/COUNTA($C$1:$J$1)</f>
+        <v>13.5</v>
+      </c>
+      <c r="F55" s="8">
+        <f>E$55-$B$55/COUNTA($C$1:$J$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2648,6 +2595,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2896,16 +2852,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2922,12 +2877,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>